--- a/biology/Botanique/Agustín_Stahl/Agustín_Stahl.xlsx
+++ b/biology/Botanique/Agustín_Stahl/Agustín_Stahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agust%C3%ADn_Stahl</t>
+          <t>Agustín_Stahl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agustín Stahl est un botaniste portoricain, né le 21 janvier 1842 à Aguadilla et mort le 12 juillet 1917 à Bayamón.
 Il étudie la médecine dans les universités de Wurztbourg (près d’Eisenach) et de Prague où il obtient le titre de docteur en 1864. Il retourne alors à Porto Rico pour ouvrir un cabinet à Bayamón. Passionné par l’histoire naturelle, il mène des observations et des expériences dans les domaines de l’ethnologie, la botanique et la zoologie. Il s’intéresse aussi à l’histoire.
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agust%C3%ADn_Stahl</t>
+          <t>Agustín_Stahl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +534,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
